--- a/data/health/dirty/health_dq_mask.xlsx
+++ b/data/health/dirty/health_dq_mask.xlsx
@@ -514,13 +514,13 @@
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -532,13 +532,13 @@
       <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -611,14 +611,14 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -676,13 +676,13 @@
       <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -730,20 +730,16 @@
       <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -752,18 +748,18 @@
       <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -790,7 +786,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -824,13 +820,13 @@
       <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -914,11 +910,7 @@
       <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -927,7 +919,11 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
     </row>
@@ -968,13 +964,13 @@
       <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1004,15 +1000,15 @@
       <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1076,17 +1072,17 @@
       <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1112,19 +1108,15 @@
       <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1206,13 +1198,13 @@
       <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -1224,13 +1216,13 @@
       <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -1262,7 +1254,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1278,18 +1270,18 @@
       <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1332,13 +1324,13 @@
       <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -1404,13 +1396,13 @@
       <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>outliers</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
@@ -1460,11 +1452,15 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>outliers</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -1476,13 +1472,13 @@
       <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
@@ -1494,13 +1490,13 @@
       <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -1530,14 +1526,14 @@
       <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -1584,7 +1580,11 @@
       <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
@@ -1593,22 +1593,18 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
@@ -1622,7 +1618,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1640,7 +1636,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -1658,16 +1654,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -1698,15 +1690,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -1772,11 +1760,7 @@
       <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
@@ -1786,7 +1770,11 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -1864,7 +1852,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1934,7 +1922,11 @@
       <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
@@ -1944,11 +1936,7 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -2024,7 +2012,11 @@
       <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
@@ -2035,20 +2027,16 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
@@ -2096,7 +2084,11 @@
       <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
@@ -2104,21 +2096,13 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
@@ -2126,23 +2110,27 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -2170,7 +2158,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2188,7 +2176,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -2206,7 +2194,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -2222,7 +2210,11 @@
       <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -2231,21 +2223,17 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -2312,13 +2300,13 @@
       <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
@@ -2330,12 +2318,12 @@
       <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -2350,7 +2338,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2384,16 +2372,20 @@
       <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -2492,13 +2484,13 @@
       <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
@@ -2512,17 +2504,17 @@
     <row r="113">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
@@ -2564,17 +2556,17 @@
       <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -2672,13 +2664,13 @@
       <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
@@ -2687,7 +2679,11 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2708,13 +2704,13 @@
       <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -2744,16 +2740,16 @@
       <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -2798,11 +2794,7 @@
       <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
@@ -2810,22 +2802,26 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
@@ -2836,18 +2832,18 @@
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
     </row>
@@ -2888,11 +2884,7 @@
       <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
@@ -2901,7 +2893,11 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
     </row>
@@ -2962,7 +2958,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -2978,13 +2974,13 @@
       <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
@@ -2996,16 +2992,16 @@
       <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -3014,13 +3010,13 @@
       <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>outliers</t>
-        </is>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
@@ -3032,17 +3028,17 @@
       <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -3050,13 +3046,13 @@
       <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
@@ -3068,7 +3064,11 @@
       <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
@@ -3077,18 +3077,14 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -3104,11 +3100,7 @@
       <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
@@ -3119,7 +3111,11 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3140,17 +3136,17 @@
       <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -3176,13 +3172,13 @@
       <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr"/>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
@@ -3194,13 +3190,13 @@
       <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
@@ -3214,7 +3210,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -3248,13 +3244,13 @@
       <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
@@ -3266,17 +3262,17 @@
       <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -3304,11 +3300,15 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -3392,13 +3392,13 @@
       <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
@@ -3412,7 +3412,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -3464,16 +3464,16 @@
       <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -3518,13 +3518,13 @@
       <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
@@ -3572,13 +3572,13 @@
       <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr"/>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
@@ -3590,12 +3590,12 @@
       <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr"/>
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -3608,40 +3608,36 @@
       <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr"/>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -3684,12 +3680,12 @@
       <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -3704,7 +3700,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3830,14 +3826,14 @@
     <row r="186">
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
@@ -3884,7 +3880,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3900,14 +3896,14 @@
       <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
@@ -3954,14 +3950,14 @@
       <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
@@ -3974,7 +3970,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3990,7 +3986,11 @@
       <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr"/>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
@@ -3998,11 +3998,7 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
@@ -4044,13 +4040,13 @@
       <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
@@ -4116,24 +4112,20 @@
       <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr"/>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>outliers</t>
-        </is>
-      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
     </row>
@@ -4192,17 +4184,17 @@
       <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -4248,7 +4240,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -4264,7 +4256,11 @@
       <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr"/>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
@@ -4272,11 +4268,7 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
@@ -4302,7 +4294,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -4336,14 +4328,14 @@
       <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr"/>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
@@ -4410,7 +4402,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -4606,13 +4598,13 @@
       <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
@@ -4642,18 +4634,22 @@
       <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
@@ -4664,7 +4660,7 @@
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
@@ -4698,7 +4694,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>outliers</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4716,7 +4712,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -4750,11 +4746,7 @@
       <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
@@ -4762,7 +4754,11 @@
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
@@ -4788,7 +4784,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4822,13 +4818,13 @@
       <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
@@ -4842,7 +4838,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -4860,7 +4856,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -4876,7 +4872,11 @@
       <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr"/>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
@@ -4885,23 +4885,19 @@
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
@@ -4912,12 +4908,12 @@
       <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
@@ -4948,13 +4944,13 @@
       <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr"/>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
@@ -4984,11 +4980,7 @@
       <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
@@ -4998,7 +4990,11 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -5020,13 +5016,13 @@
       <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr"/>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr"/>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
@@ -5038,31 +5034,31 @@
       <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr"/>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr"/>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
@@ -5074,11 +5070,7 @@
       <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
@@ -5087,7 +5079,11 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
     </row>
@@ -5112,7 +5108,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -5130,7 +5126,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -5290,36 +5286,36 @@
       <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr"/>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
@@ -5344,13 +5340,13 @@
       <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr"/>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr"/>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>outliers</t>
-        </is>
-      </c>
+      <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
@@ -5362,7 +5358,11 @@
       <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr"/>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
@@ -5372,33 +5372,21 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr"/>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -5462,7 +5450,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -5534,7 +5522,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -5568,13 +5556,13 @@
       <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr"/>
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr"/>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
@@ -5583,11 +5571,7 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -5608,24 +5592,20 @@
       <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr"/>
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr"/>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
     </row>
@@ -5666,14 +5646,14 @@
       <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr"/>
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
@@ -5684,20 +5664,16 @@
       <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr"/>
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr"/>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -5726,7 +5702,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -5742,13 +5718,13 @@
       <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr"/>
-      <c r="C291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
@@ -5760,14 +5736,14 @@
       <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
@@ -5780,7 +5756,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -5814,13 +5790,13 @@
       <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr"/>
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr"/>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
@@ -5834,7 +5810,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -5924,7 +5900,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -5958,13 +5934,13 @@
       <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr"/>
-      <c r="C303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
@@ -5996,7 +5972,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -6030,14 +6006,14 @@
       <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
@@ -6066,11 +6042,7 @@
       <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
@@ -6079,18 +6051,22 @@
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr"/>
-      <c r="C310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
@@ -6174,12 +6150,12 @@
       <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr"/>
+      <c r="A315" t="inlineStr"/>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
@@ -6210,13 +6186,13 @@
       <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr"/>
-      <c r="C317" t="inlineStr"/>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
@@ -6264,13 +6240,13 @@
       <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
+      <c r="A320" t="inlineStr"/>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr">
         <is>
           <t>type_mismatch</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr"/>
-      <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
@@ -6336,7 +6312,11 @@
       <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr"/>
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr"/>
@@ -6345,11 +6325,7 @@
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
     </row>
@@ -6390,17 +6366,17 @@
       <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr"/>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -6426,18 +6402,18 @@
       <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr"/>
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
@@ -6518,7 +6494,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -6570,18 +6546,18 @@
       <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
@@ -6624,11 +6600,7 @@
       <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A340" t="inlineStr"/>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr"/>
@@ -6636,7 +6608,11 @@
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
@@ -6660,17 +6636,17 @@
       <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
-      <c r="G342" t="inlineStr"/>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -6678,13 +6654,13 @@
       <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr"/>
-      <c r="C343" t="inlineStr"/>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
@@ -6822,13 +6798,13 @@
       <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr"/>
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr"/>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>outliers</t>
-        </is>
-      </c>
+      <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
@@ -6876,15 +6852,15 @@
       <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr"/>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr"/>
@@ -6906,11 +6882,7 @@
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr"/>
-      <c r="I355" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr"/>
@@ -6970,12 +6942,12 @@
       <c r="L358" t="inlineStr"/>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr"/>
+      <c r="A359" t="inlineStr"/>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr"/>
@@ -7006,13 +6978,13 @@
       <c r="L360" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr"/>
-      <c r="C361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr"/>
@@ -7042,19 +7014,23 @@
       <c r="L362" t="inlineStr"/>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr"/>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr"/>
-      <c r="I363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr"/>
@@ -7078,13 +7054,13 @@
       <c r="L364" t="inlineStr"/>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr"/>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr"/>
@@ -7132,13 +7108,13 @@
       <c r="L367" t="inlineStr"/>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A368" t="inlineStr"/>
       <c r="B368" t="inlineStr"/>
-      <c r="C368" t="inlineStr"/>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D368" t="inlineStr"/>
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
@@ -7174,7 +7150,11 @@
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
-      <c r="C370" t="inlineStr"/>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr"/>
@@ -7188,7 +7168,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -7206,7 +7186,11 @@
     <row r="372">
       <c r="A372" t="inlineStr"/>
       <c r="B372" t="inlineStr"/>
-      <c r="C372" t="inlineStr"/>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
@@ -7258,15 +7242,15 @@
       <c r="L374" t="inlineStr"/>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr"/>
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr"/>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr"/>
@@ -7296,7 +7280,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
@@ -7312,17 +7296,17 @@
       <c r="L377" t="inlineStr"/>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr"/>
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr"/>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -7337,19 +7321,15 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="L379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -7370,13 +7350,13 @@
       <c r="L380" t="inlineStr"/>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr"/>
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr"/>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
@@ -7424,13 +7404,13 @@
       <c r="L383" t="inlineStr"/>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr"/>
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr"/>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr"/>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
@@ -7676,13 +7656,13 @@
       <c r="L397" t="inlineStr"/>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr"/>
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr"/>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr"/>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr"/>
@@ -7712,15 +7692,15 @@
       <c r="L399" t="inlineStr"/>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr"/>
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr"/>
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr"/>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr"/>
       <c r="H400" t="inlineStr"/>
@@ -7766,13 +7746,13 @@
       <c r="L402" t="inlineStr"/>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr"/>
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr"/>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
@@ -7820,16 +7800,16 @@
       <c r="L405" t="inlineStr"/>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr"/>
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr"/>
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr"/>
@@ -7856,13 +7836,13 @@
       <c r="L407" t="inlineStr"/>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr"/>
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr"/>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr"/>
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
@@ -7930,7 +7910,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -7964,13 +7944,13 @@
       <c r="L413" t="inlineStr"/>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A414" t="inlineStr"/>
       <c r="B414" t="inlineStr"/>
-      <c r="C414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr"/>
@@ -8002,7 +7982,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -8110,7 +8090,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B422" t="inlineStr"/>
@@ -8126,13 +8106,13 @@
       <c r="L422" t="inlineStr"/>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr"/>
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr"/>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr"/>
@@ -8146,7 +8126,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -8180,36 +8160,36 @@
       <c r="L425" t="inlineStr"/>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A426" t="inlineStr"/>
       <c r="B426" t="inlineStr"/>
       <c r="C426" t="inlineStr"/>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr"/>
-      <c r="H426" t="inlineStr"/>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A427" t="inlineStr"/>
       <c r="B427" t="inlineStr"/>
       <c r="C427" t="inlineStr"/>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr"/>
-      <c r="H427" t="inlineStr"/>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
@@ -8218,7 +8198,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B428" t="inlineStr"/>
@@ -8252,18 +8232,18 @@
       <c r="L429" t="inlineStr"/>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr"/>
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr"/>
       <c r="C430" t="inlineStr"/>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr"/>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr"/>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
@@ -8290,7 +8270,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B432" t="inlineStr"/>
@@ -8342,18 +8322,18 @@
       <c r="L434" t="inlineStr"/>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr"/>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
-      <c r="H435" t="inlineStr"/>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
@@ -8378,13 +8358,13 @@
       <c r="L436" t="inlineStr"/>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A437" t="inlineStr"/>
       <c r="B437" t="inlineStr"/>
-      <c r="C437" t="inlineStr"/>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr"/>
@@ -8398,7 +8378,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B438" t="inlineStr"/>
@@ -8414,15 +8394,15 @@
       <c r="L438" t="inlineStr"/>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A439" t="inlineStr"/>
       <c r="B439" t="inlineStr"/>
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr"/>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr"/>
@@ -8506,7 +8486,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -8522,13 +8502,13 @@
       <c r="L444" t="inlineStr"/>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr"/>
-      <c r="C445" t="inlineStr"/>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="inlineStr"/>
@@ -8540,13 +8520,13 @@
       <c r="L445" t="inlineStr"/>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr"/>
-      <c r="C446" t="inlineStr"/>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr"/>
       <c r="F446" t="inlineStr"/>
@@ -8666,11 +8646,7 @@
       <c r="L452" t="inlineStr"/>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A453" t="inlineStr"/>
       <c r="B453" t="inlineStr"/>
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr"/>
@@ -8681,7 +8657,11 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -8720,32 +8700,32 @@
       <c r="L455" t="inlineStr"/>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr"/>
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr"/>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr"/>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr"/>
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr"/>
       <c r="C457" t="inlineStr"/>
-      <c r="D457" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
@@ -8794,7 +8774,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B460" t="inlineStr"/>
@@ -8864,16 +8844,16 @@
       <c r="L463" t="inlineStr"/>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A464" t="inlineStr"/>
       <c r="B464" t="inlineStr"/>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr"/>
-      <c r="F464" t="inlineStr"/>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr"/>
@@ -8882,13 +8862,13 @@
       <c r="L464" t="inlineStr"/>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr"/>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
@@ -8936,13 +8916,13 @@
       <c r="L467" t="inlineStr"/>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A468" t="inlineStr"/>
       <c r="B468" t="inlineStr"/>
-      <c r="C468" t="inlineStr"/>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
@@ -9064,7 +9044,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B475" t="inlineStr"/>
@@ -9073,11 +9053,7 @@
       <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
@@ -9174,7 +9150,11 @@
       <c r="L480" t="inlineStr"/>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr"/>
       <c r="D481" t="inlineStr"/>
@@ -9182,11 +9162,7 @@
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr"/>
-      <c r="I481" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
@@ -9194,7 +9170,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B482" t="inlineStr"/>
@@ -9390,13 +9366,13 @@
       <c r="L492" t="inlineStr"/>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
+      <c r="A493" t="inlineStr"/>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr">
         <is>
           <t>type_mismatch</t>
         </is>
       </c>
-      <c r="B493" t="inlineStr"/>
-      <c r="C493" t="inlineStr"/>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
@@ -9404,17 +9380,13 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -9430,13 +9402,13 @@
       <c r="L494" t="inlineStr"/>
     </row>
     <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A495" t="inlineStr"/>
       <c r="B495" t="inlineStr"/>
-      <c r="C495" t="inlineStr"/>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
@@ -9448,14 +9420,14 @@
       <c r="L495" t="inlineStr"/>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A496" t="inlineStr"/>
       <c r="B496" t="inlineStr"/>
       <c r="C496" t="inlineStr"/>
-      <c r="D496" t="inlineStr"/>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
@@ -9468,7 +9440,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B497" t="inlineStr"/>
@@ -9520,13 +9492,13 @@
       <c r="L499" t="inlineStr"/>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A500" t="inlineStr"/>
       <c r="B500" t="inlineStr"/>
-      <c r="C500" t="inlineStr"/>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
@@ -9540,7 +9512,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -9574,21 +9546,17 @@
       <c r="L502" t="inlineStr"/>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr"/>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C503" t="inlineStr"/>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -9616,7 +9584,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B505" t="inlineStr"/>
@@ -9634,7 +9602,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>outliers</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -9650,18 +9618,18 @@
       <c r="L506" t="inlineStr"/>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A507" t="inlineStr"/>
       <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr"/>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr"/>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr"/>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
@@ -9686,13 +9654,13 @@
       <c r="L508" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A509" t="inlineStr"/>
       <c r="B509" t="inlineStr"/>
-      <c r="C509" t="inlineStr"/>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr"/>
       <c r="F509" t="inlineStr"/>
@@ -9758,13 +9726,13 @@
       <c r="L512" t="inlineStr"/>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A513" t="inlineStr"/>
       <c r="B513" t="inlineStr"/>
-      <c r="C513" t="inlineStr"/>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
@@ -9780,7 +9748,7 @@
       <c r="B514" t="inlineStr"/>
       <c r="C514" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>outliers</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
@@ -9794,13 +9762,13 @@
       <c r="L514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A515" t="inlineStr"/>
       <c r="B515" t="inlineStr"/>
-      <c r="C515" t="inlineStr"/>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
@@ -9922,17 +9890,13 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr"/>
@@ -9944,7 +9908,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B523" t="inlineStr"/>
@@ -9996,13 +9960,13 @@
       <c r="L525" t="inlineStr"/>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr">
+      <c r="A526" t="inlineStr"/>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr">
         <is>
           <t>type_mismatch</t>
         </is>
       </c>
-      <c r="B526" t="inlineStr"/>
-      <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr"/>
@@ -10068,13 +10032,13 @@
       <c r="L529" t="inlineStr"/>
     </row>
     <row r="530">
-      <c r="A530" t="inlineStr"/>
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr"/>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
@@ -10086,13 +10050,13 @@
       <c r="L530" t="inlineStr"/>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A531" t="inlineStr"/>
       <c r="B531" t="inlineStr"/>
-      <c r="C531" t="inlineStr"/>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
@@ -10106,7 +10070,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B532" t="inlineStr"/>
@@ -10122,13 +10086,13 @@
       <c r="L532" t="inlineStr"/>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A533" t="inlineStr"/>
       <c r="B533" t="inlineStr"/>
-      <c r="C533" t="inlineStr"/>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
@@ -10194,13 +10158,13 @@
       <c r="L536" t="inlineStr"/>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr"/>
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr"/>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr"/>
@@ -10212,12 +10176,12 @@
       <c r="L537" t="inlineStr"/>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr"/>
+      <c r="A538" t="inlineStr"/>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr"/>
@@ -10304,7 +10268,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B543" t="inlineStr"/>
@@ -10320,13 +10284,13 @@
       <c r="L543" t="inlineStr"/>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr"/>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
@@ -10340,31 +10304,31 @@
     <row r="545">
       <c r="A545" t="inlineStr"/>
       <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>outliers</t>
-        </is>
-      </c>
+      <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr"/>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr"/>
     </row>
     <row r="546">
-      <c r="A546" t="inlineStr"/>
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr"/>
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr"/>
@@ -10428,7 +10392,11 @@
       <c r="L549" t="inlineStr"/>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr"/>
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr"/>
       <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr"/>
@@ -10438,11 +10406,7 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr"/>
     </row>
     <row r="551">
@@ -10502,7 +10466,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -10512,11 +10476,7 @@
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr"/>
-      <c r="I554" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr"/>
@@ -10596,7 +10556,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -10630,11 +10590,7 @@
       <c r="L560" t="inlineStr"/>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A561" t="inlineStr"/>
       <c r="B561" t="inlineStr"/>
       <c r="C561" t="inlineStr"/>
       <c r="D561" t="inlineStr"/>
@@ -10645,7 +10601,11 @@
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -10666,11 +10626,7 @@
       <c r="L562" t="inlineStr"/>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A563" t="inlineStr"/>
       <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
       <c r="D563" t="inlineStr"/>
@@ -10679,7 +10635,11 @@
       <c r="G563" t="inlineStr"/>
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr"/>
     </row>
@@ -10774,12 +10734,12 @@
       <c r="L568" t="inlineStr"/>
     </row>
     <row r="569">
-      <c r="A569" t="inlineStr"/>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr"/>
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr"/>
@@ -10812,7 +10772,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -10918,13 +10878,13 @@
       <c r="L576" t="inlineStr"/>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr"/>
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr"/>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C577" t="inlineStr"/>
       <c r="D577" t="inlineStr"/>
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr"/>
@@ -10956,7 +10916,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -10972,13 +10932,13 @@
       <c r="L579" t="inlineStr"/>
     </row>
     <row r="580">
-      <c r="A580" t="inlineStr"/>
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr"/>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C580" t="inlineStr"/>
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr"/>
       <c r="F580" t="inlineStr"/>
@@ -11026,13 +10986,13 @@
       <c r="L582" t="inlineStr"/>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr"/>
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr"/>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="C583" t="inlineStr"/>
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr"/>
@@ -11069,11 +11029,7 @@
           <t>outliers</t>
         </is>
       </c>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D585" t="inlineStr"/>
       <c r="E585" t="inlineStr"/>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr"/>
@@ -11086,7 +11042,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -11104,7 +11060,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>outliers</t>
         </is>
       </c>
       <c r="B587" t="inlineStr"/>
@@ -11117,7 +11073,11 @@
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -11156,12 +11116,12 @@
       <c r="L589" t="inlineStr"/>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr"/>
+      <c r="A590" t="inlineStr"/>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr"/>
@@ -11230,7 +11190,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -11264,13 +11224,13 @@
       <c r="L595" t="inlineStr"/>
     </row>
     <row r="596">
-      <c r="A596" t="inlineStr"/>
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr"/>
-      <c r="C596" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C596" t="inlineStr"/>
       <c r="D596" t="inlineStr"/>
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr"/>
@@ -11318,11 +11278,7 @@
       <c r="L598" t="inlineStr"/>
     </row>
     <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A599" t="inlineStr"/>
       <c r="B599" t="inlineStr"/>
       <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr"/>
@@ -11332,7 +11288,11 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="L599" t="inlineStr"/>
     </row>
     <row r="600">
@@ -11342,24 +11302,24 @@
       <c r="D600" t="inlineStr"/>
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr"/>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr"/>
     </row>
     <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
+      <c r="A601" t="inlineStr"/>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C601" t="inlineStr"/>
       <c r="D601" t="inlineStr"/>
       <c r="E601" t="inlineStr"/>
@@ -11374,7 +11334,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B602" t="inlineStr"/>
@@ -11408,12 +11368,12 @@
       <c r="L603" t="inlineStr"/>
     </row>
     <row r="604">
-      <c r="A604" t="inlineStr"/>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr"/>
@@ -11428,7 +11388,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B605" t="inlineStr"/>
@@ -11536,11 +11496,15 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
-      <c r="C611" t="inlineStr"/>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D611" t="inlineStr"/>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
@@ -11626,7 +11590,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -11642,12 +11606,12 @@
       <c r="L616" t="inlineStr"/>
     </row>
     <row r="617">
-      <c r="A617" t="inlineStr"/>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr"/>
       <c r="C617" t="inlineStr"/>
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr"/>
@@ -11662,7 +11626,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B618" t="inlineStr"/>
@@ -11678,21 +11642,25 @@
       <c r="L618" t="inlineStr"/>
     </row>
     <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A619" t="inlineStr"/>
       <c r="B619" t="inlineStr"/>
       <c r="C619" t="inlineStr"/>
       <c r="D619" t="inlineStr"/>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
       <c r="G619" t="inlineStr"/>
-      <c r="H619" t="inlineStr"/>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="L619" t="inlineStr"/>
     </row>
     <row r="620">
@@ -11714,13 +11682,13 @@
       <c r="L620" t="inlineStr"/>
     </row>
     <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A621" t="inlineStr"/>
       <c r="B621" t="inlineStr"/>
-      <c r="C621" t="inlineStr"/>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D621" t="inlineStr"/>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
@@ -11750,13 +11718,13 @@
       <c r="L622" t="inlineStr"/>
     </row>
     <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A623" t="inlineStr"/>
       <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
@@ -11806,7 +11774,11 @@
     <row r="626">
       <c r="A626" t="inlineStr"/>
       <c r="B626" t="inlineStr"/>
-      <c r="C626" t="inlineStr"/>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
@@ -11815,11 +11787,7 @@
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="L626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -11840,11 +11808,7 @@
       <c r="L627" t="inlineStr"/>
     </row>
     <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A628" t="inlineStr"/>
       <c r="B628" t="inlineStr"/>
       <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr"/>
@@ -11854,13 +11818,17 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="L628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -11896,7 +11864,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -11912,13 +11880,13 @@
       <c r="L631" t="inlineStr"/>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr"/>
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr"/>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C632" t="inlineStr"/>
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
@@ -11930,13 +11898,13 @@
       <c r="L632" t="inlineStr"/>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A633" t="inlineStr"/>
       <c r="B633" t="inlineStr"/>
-      <c r="C633" t="inlineStr"/>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
@@ -11966,13 +11934,13 @@
       <c r="L634" t="inlineStr"/>
     </row>
     <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A635" t="inlineStr"/>
       <c r="B635" t="inlineStr"/>
-      <c r="C635" t="inlineStr"/>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D635" t="inlineStr"/>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
@@ -11984,31 +11952,31 @@
       <c r="L635" t="inlineStr"/>
     </row>
     <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A636" t="inlineStr"/>
       <c r="B636" t="inlineStr"/>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr"/>
-      <c r="H636" t="inlineStr"/>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr"/>
     </row>
     <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A637" t="inlineStr"/>
       <c r="B637" t="inlineStr"/>
-      <c r="C637" t="inlineStr"/>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
@@ -12110,18 +12078,18 @@
       <c r="L642" t="inlineStr"/>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr"/>
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr"/>
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
@@ -12148,13 +12116,17 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr"/>
-      <c r="E645" t="inlineStr"/>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="F645" t="inlineStr"/>
       <c r="G645" t="inlineStr"/>
       <c r="H645" t="inlineStr"/>
@@ -12254,13 +12226,13 @@
       <c r="L650" t="inlineStr"/>
     </row>
     <row r="651">
-      <c r="A651" t="inlineStr"/>
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr"/>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr"/>
       <c r="F651" t="inlineStr"/>
@@ -12290,13 +12262,13 @@
       <c r="L652" t="inlineStr"/>
     </row>
     <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A653" t="inlineStr"/>
       <c r="B653" t="inlineStr"/>
-      <c r="C653" t="inlineStr"/>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
@@ -12310,7 +12282,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -12326,15 +12298,15 @@
       <c r="L654" t="inlineStr"/>
     </row>
     <row r="655">
-      <c r="A655" t="inlineStr"/>
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr"/>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr"/>
-      <c r="E655" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr"/>
@@ -12416,7 +12388,11 @@
       <c r="L659" t="inlineStr"/>
     </row>
     <row r="660">
-      <c r="A660" t="inlineStr"/>
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr"/>
       <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr"/>
@@ -12426,11 +12402,7 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr"/>
     </row>
     <row r="661">
@@ -12454,11 +12426,15 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B662" t="inlineStr"/>
-      <c r="C662" t="inlineStr"/>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr"/>
@@ -12490,7 +12466,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -12498,7 +12474,11 @@
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr"/>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -12544,7 +12524,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B667" t="inlineStr"/>
@@ -12668,13 +12648,13 @@
       <c r="L673" t="inlineStr"/>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr"/>
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr"/>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr"/>
@@ -12722,13 +12702,13 @@
       <c r="L676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A677" t="inlineStr"/>
       <c r="B677" t="inlineStr"/>
-      <c r="C677" t="inlineStr"/>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr"/>
       <c r="F677" t="inlineStr"/>
@@ -12758,13 +12738,13 @@
       <c r="L678" t="inlineStr"/>
     </row>
     <row r="679">
-      <c r="A679" t="inlineStr"/>
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr"/>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C679" t="inlineStr"/>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr"/>
       <c r="F679" t="inlineStr"/>
@@ -12812,12 +12792,12 @@
       <c r="L681" t="inlineStr"/>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr"/>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr"/>
@@ -12884,14 +12864,14 @@
       <c r="L685" t="inlineStr"/>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr"/>
       <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E686" t="inlineStr"/>
       <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr"/>
@@ -12956,13 +12936,13 @@
       <c r="L689" t="inlineStr"/>
     </row>
     <row r="690">
-      <c r="A690" t="inlineStr"/>
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B690" t="inlineStr"/>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C690" t="inlineStr"/>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr"/>
       <c r="F690" t="inlineStr"/>
@@ -13064,13 +13044,13 @@
       <c r="L695" t="inlineStr"/>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A696" t="inlineStr"/>
       <c r="B696" t="inlineStr"/>
-      <c r="C696" t="inlineStr"/>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr"/>
       <c r="F696" t="inlineStr"/>
@@ -13118,11 +13098,7 @@
       <c r="L698" t="inlineStr"/>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A699" t="inlineStr"/>
       <c r="B699" t="inlineStr"/>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
@@ -13133,7 +13109,11 @@
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -13172,18 +13152,18 @@
       <c r="L701" t="inlineStr"/>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A702" t="inlineStr"/>
       <c r="B702" t="inlineStr"/>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
       <c r="G702" t="inlineStr"/>
-      <c r="H702" t="inlineStr"/>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
@@ -13354,29 +13334,29 @@
     <row r="712">
       <c r="A712" t="inlineStr"/>
       <c r="B712" t="inlineStr"/>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr"/>
-      <c r="H712" t="inlineStr"/>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr"/>
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr"/>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
@@ -13408,7 +13388,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B715" t="inlineStr"/>
@@ -13442,15 +13422,15 @@
       <c r="L716" t="inlineStr"/>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A717" t="inlineStr"/>
       <c r="B717" t="inlineStr"/>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr"/>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="F717" t="inlineStr"/>
       <c r="G717" t="inlineStr"/>
       <c r="H717" t="inlineStr"/>
@@ -13462,7 +13442,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B718" t="inlineStr"/>
@@ -13516,7 +13496,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -13588,7 +13568,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B725" t="inlineStr"/>
@@ -13838,13 +13818,13 @@
       <c r="L738" t="inlineStr"/>
     </row>
     <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A739" t="inlineStr"/>
       <c r="B739" t="inlineStr"/>
-      <c r="C739" t="inlineStr"/>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr"/>
@@ -13984,15 +13964,11 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B747" t="inlineStr"/>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr"/>
       <c r="E747" t="inlineStr"/>
       <c r="F747" t="inlineStr"/>
@@ -14076,13 +14052,13 @@
       <c r="L751" t="inlineStr"/>
     </row>
     <row r="752">
-      <c r="A752" t="inlineStr"/>
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B752" t="inlineStr"/>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C752" t="inlineStr"/>
       <c r="D752" t="inlineStr"/>
       <c r="E752" t="inlineStr"/>
       <c r="F752" t="inlineStr"/>
@@ -14112,15 +14088,15 @@
       <c r="L753" t="inlineStr"/>
     </row>
     <row r="754">
-      <c r="A754" t="inlineStr"/>
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B754" t="inlineStr"/>
       <c r="C754" t="inlineStr"/>
       <c r="D754" t="inlineStr"/>
-      <c r="E754" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E754" t="inlineStr"/>
       <c r="F754" t="inlineStr"/>
       <c r="G754" t="inlineStr"/>
       <c r="H754" t="inlineStr"/>
@@ -14130,7 +14106,11 @@
       <c r="L754" t="inlineStr"/>
     </row>
     <row r="755">
-      <c r="A755" t="inlineStr"/>
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B755" t="inlineStr"/>
       <c r="C755" t="inlineStr"/>
       <c r="D755" t="inlineStr"/>
@@ -14140,17 +14120,13 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -14168,7 +14144,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B757" t="inlineStr"/>
@@ -14202,13 +14178,13 @@
       <c r="L758" t="inlineStr"/>
     </row>
     <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A759" t="inlineStr"/>
       <c r="B759" t="inlineStr"/>
-      <c r="C759" t="inlineStr"/>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D759" t="inlineStr"/>
       <c r="E759" t="inlineStr"/>
       <c r="F759" t="inlineStr"/>
@@ -14328,11 +14304,7 @@
       <c r="L765" t="inlineStr"/>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A766" t="inlineStr"/>
       <c r="B766" t="inlineStr"/>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr"/>
@@ -14342,7 +14314,11 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="L766" t="inlineStr"/>
     </row>
     <row r="767">
@@ -14366,7 +14342,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B768" t="inlineStr"/>
@@ -14386,20 +14362,16 @@
       <c r="B769" t="inlineStr"/>
       <c r="C769" t="inlineStr"/>
       <c r="D769" t="inlineStr"/>
-      <c r="E769" t="inlineStr">
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr">
         <is>
           <t>missing</t>
         </is>
       </c>
-      <c r="F769" t="inlineStr"/>
       <c r="G769" t="inlineStr"/>
       <c r="H769" t="inlineStr"/>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
       <c r="L769" t="inlineStr"/>
     </row>
@@ -14424,7 +14396,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -14658,7 +14630,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -14728,13 +14700,13 @@
       <c r="L787" t="inlineStr"/>
     </row>
     <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="A788" t="inlineStr"/>
       <c r="B788" t="inlineStr"/>
-      <c r="C788" t="inlineStr"/>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="D788" t="inlineStr"/>
       <c r="E788" t="inlineStr"/>
       <c r="F788" t="inlineStr"/>
@@ -14748,7 +14720,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -14764,11 +14736,7 @@
       <c r="L789" t="inlineStr"/>
     </row>
     <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A790" t="inlineStr"/>
       <c r="B790" t="inlineStr"/>
       <c r="C790" t="inlineStr"/>
       <c r="D790" t="inlineStr"/>
@@ -14778,7 +14746,11 @@
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="L790" t="inlineStr"/>
     </row>
     <row r="791">
@@ -14800,13 +14772,13 @@
       <c r="L791" t="inlineStr"/>
     </row>
     <row r="792">
-      <c r="A792" t="inlineStr"/>
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B792" t="inlineStr"/>
-      <c r="C792" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr"/>
       <c r="E792" t="inlineStr"/>
       <c r="F792" t="inlineStr"/>
@@ -14818,13 +14790,13 @@
       <c r="L792" t="inlineStr"/>
     </row>
     <row r="793">
-      <c r="A793" t="inlineStr"/>
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B793" t="inlineStr"/>
-      <c r="C793" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C793" t="inlineStr"/>
       <c r="D793" t="inlineStr"/>
       <c r="E793" t="inlineStr"/>
       <c r="F793" t="inlineStr"/>
@@ -14926,11 +14898,7 @@
       <c r="L798" t="inlineStr"/>
     </row>
     <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A799" t="inlineStr"/>
       <c r="B799" t="inlineStr"/>
       <c r="C799" t="inlineStr"/>
       <c r="D799" t="inlineStr"/>
@@ -14938,24 +14906,28 @@
       <c r="F799" t="inlineStr"/>
       <c r="G799" t="inlineStr"/>
       <c r="H799" t="inlineStr"/>
-      <c r="I799" t="inlineStr"/>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
       <c r="L799" t="inlineStr"/>
     </row>
     <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A800" t="inlineStr"/>
       <c r="B800" t="inlineStr"/>
       <c r="C800" t="inlineStr"/>
       <c r="D800" t="inlineStr"/>
       <c r="E800" t="inlineStr"/>
       <c r="F800" t="inlineStr"/>
       <c r="G800" t="inlineStr"/>
-      <c r="H800" t="inlineStr"/>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
@@ -15018,7 +14990,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -15034,22 +15006,30 @@
       <c r="L804" t="inlineStr"/>
     </row>
     <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A805" t="inlineStr"/>
       <c r="B805" t="inlineStr"/>
       <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr"/>
-      <c r="E805" t="inlineStr"/>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="F805" t="inlineStr"/>
       <c r="G805" t="inlineStr"/>
       <c r="H805" t="inlineStr"/>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -15088,11 +15068,7 @@
       <c r="L807" t="inlineStr"/>
     </row>
     <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A808" t="inlineStr"/>
       <c r="B808" t="inlineStr"/>
       <c r="C808" t="inlineStr"/>
       <c r="D808" t="inlineStr"/>
@@ -15100,22 +15076,26 @@
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
       <c r="H808" t="inlineStr"/>
-      <c r="I808" t="inlineStr"/>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
       <c r="L808" t="inlineStr"/>
     </row>
     <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A809" t="inlineStr"/>
       <c r="B809" t="inlineStr"/>
       <c r="C809" t="inlineStr"/>
       <c r="D809" t="inlineStr"/>
       <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G809" t="inlineStr"/>
       <c r="H809" t="inlineStr"/>
       <c r="I809" t="inlineStr"/>
@@ -15144,7 +15124,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B811" t="inlineStr"/>
@@ -15250,7 +15230,11 @@
       <c r="L816" t="inlineStr"/>
     </row>
     <row r="817">
-      <c r="A817" t="inlineStr"/>
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B817" t="inlineStr"/>
       <c r="C817" t="inlineStr"/>
       <c r="D817" t="inlineStr"/>
@@ -15260,25 +15244,25 @@
       <c r="H817" t="inlineStr"/>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="inlineStr"/>
     </row>
     <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A818" t="inlineStr"/>
       <c r="B818" t="inlineStr"/>
-      <c r="C818" t="inlineStr"/>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D818" t="inlineStr"/>
       <c r="E818" t="inlineStr"/>
       <c r="F818" t="inlineStr"/>
-      <c r="G818" t="inlineStr"/>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H818" t="inlineStr"/>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -15304,7 +15288,11 @@
       <c r="L819" t="inlineStr"/>
     </row>
     <row r="820">
-      <c r="A820" t="inlineStr"/>
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B820" t="inlineStr"/>
       <c r="C820" t="inlineStr"/>
       <c r="D820" t="inlineStr"/>
@@ -15315,11 +15303,7 @@
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="L820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -15329,7 +15313,11 @@
       </c>
       <c r="B821" t="inlineStr"/>
       <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr"/>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E821" t="inlineStr"/>
       <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr"/>
@@ -15358,15 +15346,15 @@
       <c r="L822" t="inlineStr"/>
     </row>
     <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A823" t="inlineStr"/>
       <c r="B823" t="inlineStr"/>
       <c r="C823" t="inlineStr"/>
       <c r="D823" t="inlineStr"/>
-      <c r="E823" t="inlineStr"/>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="F823" t="inlineStr"/>
       <c r="G823" t="inlineStr"/>
       <c r="H823" t="inlineStr"/>
@@ -15394,13 +15382,13 @@
       <c r="L824" t="inlineStr"/>
     </row>
     <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A825" t="inlineStr"/>
       <c r="B825" t="inlineStr"/>
-      <c r="C825" t="inlineStr"/>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D825" t="inlineStr"/>
       <c r="E825" t="inlineStr"/>
       <c r="F825" t="inlineStr"/>
@@ -15504,7 +15492,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -15538,14 +15526,14 @@
       <c r="L832" t="inlineStr"/>
     </row>
     <row r="833">
-      <c r="A833" t="inlineStr"/>
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B833" t="inlineStr"/>
       <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D833" t="inlineStr"/>
       <c r="E833" t="inlineStr"/>
       <c r="F833" t="inlineStr"/>
       <c r="G833" t="inlineStr"/>
@@ -15574,13 +15562,13 @@
       <c r="L834" t="inlineStr"/>
     </row>
     <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A835" t="inlineStr"/>
       <c r="B835" t="inlineStr"/>
-      <c r="C835" t="inlineStr"/>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="D835" t="inlineStr"/>
       <c r="E835" t="inlineStr"/>
       <c r="F835" t="inlineStr"/>
@@ -15610,12 +15598,12 @@
       <c r="L836" t="inlineStr"/>
     </row>
     <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr"/>
+      <c r="A837" t="inlineStr"/>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C837" t="inlineStr"/>
       <c r="D837" t="inlineStr"/>
       <c r="E837" t="inlineStr"/>
@@ -15630,7 +15618,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B838" t="inlineStr"/>
@@ -15648,7 +15636,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -15666,25 +15654,17 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B840" t="inlineStr"/>
-      <c r="C840" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C840" t="inlineStr"/>
       <c r="D840" t="inlineStr"/>
       <c r="E840" t="inlineStr"/>
       <c r="F840" t="inlineStr"/>
       <c r="G840" t="inlineStr"/>
       <c r="H840" t="inlineStr"/>
-      <c r="I840" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
       <c r="L840" t="inlineStr"/>
@@ -15708,18 +15688,22 @@
       <c r="L841" t="inlineStr"/>
     </row>
     <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A842" t="inlineStr"/>
       <c r="B842" t="inlineStr"/>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr"/>
       <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr"/>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
@@ -15745,12 +15729,12 @@
     </row>
     <row r="844">
       <c r="A844" t="inlineStr"/>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr"/>
+      <c r="B844" t="inlineStr"/>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D844" t="inlineStr"/>
       <c r="E844" t="inlineStr"/>
       <c r="F844" t="inlineStr"/>
@@ -15818,7 +15802,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B848" t="inlineStr"/>
@@ -15854,7 +15838,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B850" t="inlineStr"/>
@@ -15872,15 +15856,11 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
-      <c r="C851" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr"/>
       <c r="F851" t="inlineStr"/>
@@ -15894,7 +15874,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B852" t="inlineStr"/>
@@ -15910,7 +15890,11 @@
       <c r="L852" t="inlineStr"/>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr"/>
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B853" t="inlineStr"/>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr"/>
@@ -15921,11 +15905,7 @@
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="L853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -15966,15 +15946,11 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
-      <c r="C856" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr"/>
       <c r="F856" t="inlineStr"/>
@@ -16022,16 +15998,20 @@
       <c r="L858" t="inlineStr"/>
     </row>
     <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A859" t="inlineStr"/>
       <c r="B859" t="inlineStr"/>
-      <c r="C859" t="inlineStr"/>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D859" t="inlineStr"/>
       <c r="E859" t="inlineStr"/>
-      <c r="F859" t="inlineStr"/>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G859" t="inlineStr"/>
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr"/>
@@ -16078,7 +16058,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B862" t="inlineStr"/>
@@ -16166,15 +16146,15 @@
       <c r="L866" t="inlineStr"/>
     </row>
     <row r="867">
-      <c r="A867" t="inlineStr"/>
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B867" t="inlineStr"/>
       <c r="C867" t="inlineStr"/>
       <c r="D867" t="inlineStr"/>
-      <c r="E867" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E867" t="inlineStr"/>
       <c r="F867" t="inlineStr"/>
       <c r="G867" t="inlineStr"/>
       <c r="H867" t="inlineStr"/>
@@ -16184,13 +16164,13 @@
       <c r="L867" t="inlineStr"/>
     </row>
     <row r="868">
-      <c r="A868" t="inlineStr"/>
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B868" t="inlineStr"/>
-      <c r="C868" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C868" t="inlineStr"/>
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr"/>
       <c r="F868" t="inlineStr"/>
@@ -16204,7 +16184,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -16274,13 +16254,13 @@
       <c r="L872" t="inlineStr"/>
     </row>
     <row r="873">
-      <c r="A873" t="inlineStr"/>
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B873" t="inlineStr"/>
-      <c r="C873" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C873" t="inlineStr"/>
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr"/>
       <c r="F873" t="inlineStr"/>
@@ -16348,49 +16328,49 @@
     <row r="877">
       <c r="A877" t="inlineStr"/>
       <c r="B877" t="inlineStr"/>
-      <c r="C877" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C877" t="inlineStr"/>
       <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
       <c r="H877" t="inlineStr"/>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="K877" t="inlineStr"/>
       <c r="L877" t="inlineStr"/>
     </row>
     <row r="878">
-      <c r="A878" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A878" t="inlineStr"/>
       <c r="B878" t="inlineStr"/>
       <c r="C878" t="inlineStr"/>
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr"/>
       <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr"/>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
       <c r="L878" t="inlineStr"/>
     </row>
     <row r="879">
-      <c r="A879" t="inlineStr"/>
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B879" t="inlineStr"/>
       <c r="C879" t="inlineStr"/>
       <c r="D879" t="inlineStr"/>
-      <c r="E879" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr"/>
@@ -16402,7 +16382,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -16420,7 +16400,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -16474,7 +16454,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -16492,7 +16472,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B885" t="inlineStr"/>
@@ -16528,7 +16508,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -16582,7 +16562,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>missing</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B890" t="inlineStr"/>
@@ -16590,11 +16570,7 @@
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr"/>
       <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G890" t="inlineStr"/>
       <c r="H890" t="inlineStr"/>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -16602,17 +16578,17 @@
       <c r="L890" t="inlineStr"/>
     </row>
     <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A891" t="inlineStr"/>
       <c r="B891" t="inlineStr"/>
       <c r="C891" t="inlineStr"/>
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr"/>
       <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H891" t="inlineStr"/>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -16620,13 +16596,13 @@
       <c r="L891" t="inlineStr"/>
     </row>
     <row r="892">
-      <c r="A892" t="inlineStr"/>
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B892" t="inlineStr"/>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C892" t="inlineStr"/>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr"/>
       <c r="F892" t="inlineStr"/>
@@ -16656,13 +16632,13 @@
       <c r="L893" t="inlineStr"/>
     </row>
     <row r="894">
-      <c r="A894" t="inlineStr"/>
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B894" t="inlineStr"/>
-      <c r="C894" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C894" t="inlineStr"/>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr"/>
@@ -16671,11 +16647,7 @@
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
-      <c r="L894" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="L894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
@@ -16696,7 +16668,11 @@
       <c r="L895" t="inlineStr"/>
     </row>
     <row r="896">
-      <c r="A896" t="inlineStr"/>
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B896" t="inlineStr"/>
       <c r="C896" t="inlineStr"/>
       <c r="D896" t="inlineStr"/>
@@ -16704,11 +16680,7 @@
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
       <c r="H896" t="inlineStr"/>
-      <c r="I896" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
       <c r="L896" t="inlineStr"/>
@@ -16734,7 +16706,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>outliers</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -16752,7 +16724,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -16788,7 +16760,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -16840,13 +16812,13 @@
       <c r="L903" t="inlineStr"/>
     </row>
     <row r="904">
-      <c r="A904" t="inlineStr"/>
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B904" t="inlineStr"/>
-      <c r="C904" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="C904" t="inlineStr"/>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr"/>
       <c r="F904" t="inlineStr"/>
@@ -16876,14 +16848,14 @@
       <c r="L905" t="inlineStr"/>
     </row>
     <row r="906">
-      <c r="A906" t="inlineStr"/>
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B906" t="inlineStr"/>
       <c r="C906" t="inlineStr"/>
-      <c r="D906" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
@@ -16930,13 +16902,13 @@
       <c r="L908" t="inlineStr"/>
     </row>
     <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A909" t="inlineStr"/>
       <c r="B909" t="inlineStr"/>
-      <c r="C909" t="inlineStr"/>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr"/>
       <c r="F909" t="inlineStr"/>
@@ -16948,39 +16920,35 @@
       <c r="L909" t="inlineStr"/>
     </row>
     <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A910" t="inlineStr"/>
       <c r="B910" t="inlineStr"/>
       <c r="C910" t="inlineStr"/>
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr"/>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr"/>
       <c r="L910" t="inlineStr"/>
     </row>
     <row r="911">
-      <c r="A911" t="inlineStr"/>
-      <c r="B911" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr"/>
       <c r="C911" t="inlineStr"/>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr"/>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -17008,14 +16976,18 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
       <c r="C913" t="inlineStr"/>
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr"/>
-      <c r="F913" t="inlineStr"/>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr"/>
       <c r="I913" t="inlineStr"/>
@@ -17024,17 +16996,13 @@
       <c r="L913" t="inlineStr"/>
     </row>
     <row r="914">
-      <c r="A914" t="inlineStr"/>
-      <c r="B914" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
-      <c r="C914" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr"/>
+      <c r="C914" t="inlineStr"/>
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
@@ -17100,13 +17068,13 @@
       <c r="L917" t="inlineStr"/>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr"/>
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B918" t="inlineStr"/>
-      <c r="C918" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C918" t="inlineStr"/>
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
@@ -17228,7 +17196,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -17298,18 +17266,14 @@
       <c r="L928" t="inlineStr"/>
     </row>
     <row r="929">
-      <c r="A929" t="inlineStr"/>
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B929" t="inlineStr"/>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="C929" t="inlineStr"/>
+      <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
@@ -17356,13 +17320,13 @@
       <c r="L931" t="inlineStr"/>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr"/>
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B932" t="inlineStr"/>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>outliers</t>
-        </is>
-      </c>
+      <c r="C932" t="inlineStr"/>
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr"/>
       <c r="F932" t="inlineStr"/>
@@ -17374,17 +17338,17 @@
       <c r="L932" t="inlineStr"/>
     </row>
     <row r="933">
-      <c r="A933" t="inlineStr"/>
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="B933" t="inlineStr"/>
       <c r="C933" t="inlineStr"/>
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr"/>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -17410,14 +17374,18 @@
       <c r="L934" t="inlineStr"/>
     </row>
     <row r="935">
-      <c r="A935" t="inlineStr">
+      <c r="A935" t="inlineStr"/>
+      <c r="B935" t="inlineStr"/>
+      <c r="C935" t="inlineStr">
         <is>
           <t>type_mismatch</t>
         </is>
       </c>
-      <c r="B935" t="inlineStr"/>
-      <c r="C935" t="inlineStr"/>
-      <c r="D935" t="inlineStr"/>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
@@ -17428,13 +17396,13 @@
       <c r="L935" t="inlineStr"/>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A936" t="inlineStr"/>
       <c r="B936" t="inlineStr"/>
-      <c r="C936" t="inlineStr"/>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
@@ -17482,18 +17450,18 @@
       <c r="L938" t="inlineStr"/>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr"/>
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="B939" t="inlineStr"/>
       <c r="C939" t="inlineStr"/>
       <c r="D939" t="inlineStr"/>
       <c r="E939" t="inlineStr"/>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="H939" t="inlineStr"/>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
@@ -17536,14 +17504,14 @@
       <c r="L941" t="inlineStr"/>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A942" t="inlineStr"/>
       <c r="B942" t="inlineStr"/>
       <c r="C942" t="inlineStr"/>
-      <c r="D942" t="inlineStr"/>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr"/>
@@ -17558,7 +17526,7 @@
       <c r="B943" t="inlineStr"/>
       <c r="C943" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="D943" t="inlineStr"/>
@@ -17646,7 +17614,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -17664,11 +17632,15 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
-      <c r="C949" t="inlineStr"/>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D949" t="inlineStr"/>
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
@@ -17716,12 +17688,12 @@
       <c r="L951" t="inlineStr"/>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr"/>
+      <c r="A952" t="inlineStr"/>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C952" t="inlineStr"/>
       <c r="D952" t="inlineStr"/>
       <c r="E952" t="inlineStr"/>
@@ -17734,20 +17706,24 @@
       <c r="L952" t="inlineStr"/>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A953" t="inlineStr"/>
       <c r="B953" t="inlineStr"/>
-      <c r="C953" t="inlineStr"/>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr"/>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="K953" t="inlineStr"/>
       <c r="L953" t="inlineStr"/>
     </row>
@@ -17770,17 +17746,17 @@
       <c r="L954" t="inlineStr"/>
     </row>
     <row r="955">
-      <c r="A955" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A955" t="inlineStr"/>
       <c r="B955" t="inlineStr"/>
       <c r="C955" t="inlineStr"/>
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr"/>
       <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="H955" t="inlineStr"/>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -17808,7 +17784,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -17842,13 +17818,13 @@
       <c r="L958" t="inlineStr"/>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A959" t="inlineStr"/>
       <c r="B959" t="inlineStr"/>
-      <c r="C959" t="inlineStr"/>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="D959" t="inlineStr"/>
       <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
@@ -17896,14 +17872,14 @@
       <c r="L961" t="inlineStr"/>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr"/>
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B962" t="inlineStr"/>
       <c r="C962" t="inlineStr"/>
-      <c r="D962" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="D962" t="inlineStr"/>
       <c r="E962" t="inlineStr"/>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
@@ -17932,13 +17908,13 @@
       <c r="L963" t="inlineStr"/>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr"/>
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B964" t="inlineStr"/>
-      <c r="C964" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="C964" t="inlineStr"/>
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr"/>
       <c r="F964" t="inlineStr"/>
@@ -17952,11 +17928,15 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
-      <c r="C965" t="inlineStr"/>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="D965" t="inlineStr"/>
       <c r="E965" t="inlineStr"/>
       <c r="F965" t="inlineStr"/>
@@ -17986,7 +17966,11 @@
       <c r="L966" t="inlineStr"/>
     </row>
     <row r="967">
-      <c r="A967" t="inlineStr"/>
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
       <c r="B967" t="inlineStr"/>
       <c r="C967" t="inlineStr"/>
       <c r="D967" t="inlineStr"/>
@@ -17995,11 +17979,7 @@
       <c r="G967" t="inlineStr"/>
       <c r="H967" t="inlineStr"/>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
       <c r="L967" t="inlineStr"/>
     </row>
@@ -18058,12 +18038,12 @@
       <c r="L970" t="inlineStr"/>
     </row>
     <row r="971">
-      <c r="A971" t="inlineStr"/>
-      <c r="B971" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>noop</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr"/>
       <c r="C971" t="inlineStr"/>
       <c r="D971" t="inlineStr"/>
       <c r="E971" t="inlineStr"/>
@@ -18274,13 +18254,13 @@
       <c r="L982" t="inlineStr"/>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A983" t="inlineStr"/>
       <c r="B983" t="inlineStr"/>
-      <c r="C983" t="inlineStr"/>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>outliers</t>
+        </is>
+      </c>
       <c r="D983" t="inlineStr"/>
       <c r="E983" t="inlineStr"/>
       <c r="F983" t="inlineStr"/>
@@ -18328,19 +18308,23 @@
       <c r="L985" t="inlineStr"/>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>type_mismatch</t>
-        </is>
-      </c>
+      <c r="A986" t="inlineStr"/>
       <c r="B986" t="inlineStr"/>
       <c r="C986" t="inlineStr"/>
-      <c r="D986" t="inlineStr"/>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="E986" t="inlineStr"/>
       <c r="F986" t="inlineStr"/>
       <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr"/>
-      <c r="I986" t="inlineStr"/>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
       <c r="L986" t="inlineStr"/>
@@ -18382,11 +18366,7 @@
       <c r="L988" t="inlineStr"/>
     </row>
     <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A989" t="inlineStr"/>
       <c r="B989" t="inlineStr"/>
       <c r="C989" t="inlineStr"/>
       <c r="D989" t="inlineStr"/>
@@ -18394,18 +18374,22 @@
       <c r="F989" t="inlineStr"/>
       <c r="G989" t="inlineStr"/>
       <c r="H989" t="inlineStr"/>
-      <c r="I989" t="inlineStr"/>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
       <c r="L989" t="inlineStr"/>
     </row>
     <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr"/>
+      <c r="A990" t="inlineStr"/>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="C990" t="inlineStr"/>
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr"/>
@@ -18438,7 +18422,11 @@
     <row r="992">
       <c r="A992" t="inlineStr"/>
       <c r="B992" t="inlineStr"/>
-      <c r="C992" t="inlineStr"/>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D992" t="inlineStr"/>
       <c r="E992" t="inlineStr"/>
       <c r="F992" t="inlineStr">
@@ -18474,7 +18462,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -18492,7 +18480,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>noop</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -18546,11 +18534,15 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>noop</t>
+          <t>type_mismatch</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
-      <c r="C998" t="inlineStr"/>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>type_mismatch</t>
+        </is>
+      </c>
       <c r="D998" t="inlineStr"/>
       <c r="E998" t="inlineStr"/>
       <c r="F998" t="inlineStr"/>
@@ -18562,16 +18554,16 @@
       <c r="L998" t="inlineStr"/>
     </row>
     <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>noop</t>
-        </is>
-      </c>
+      <c r="A999" t="inlineStr"/>
       <c r="B999" t="inlineStr"/>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr"/>
       <c r="E999" t="inlineStr"/>
-      <c r="F999" t="inlineStr"/>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
       <c r="G999" t="inlineStr"/>
       <c r="H999" t="inlineStr"/>
       <c r="I999" t="inlineStr"/>
@@ -18580,15 +18572,11 @@
       <c r="L999" t="inlineStr"/>
     </row>
     <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
+      <c r="A1000" t="inlineStr"/>
       <c r="B1000" t="inlineStr"/>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>type_mismatch</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr"/>
